--- a/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/06,25/09,06,25 ПОКОМ КИ Новороссийск/Новороссийск/продажи Новороссийск 03,06,25-09,06,25.xlsx
+++ b/ЗАВОДЫ/ПОКОМ/Краснодар_филиалы/2025/06,25/09,06,25 ПОКОМ КИ Новороссийск/Новороссийск/продажи Новороссийск 03,06,25-09,06,25.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\09,06,25 ПОКОМ КИ Новороссийск\Новороссийск\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Father\Work\2025_05\ЗАВОДЫ\ПОКОМ\Краснодар_филиалы\2025\06,25\09,06,25 ПОКОМ КИ Новороссийск\Новороссийск\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFACF669-413B-450B-A0BD-8512BC984871}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75BCBB5E-58BE-4D6A-AAA6-CCA9F59640C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TDSheet" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" refMode="R1C1"/>
+  <calcPr calcId="191029" refMode="R1C1"/>
 </workbook>
 </file>
 
@@ -659,6 +659,33 @@
     <xf numFmtId="167" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -676,33 +703,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,9 +722,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -762,9 +762,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -797,26 +797,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -849,26 +832,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1049,7 +1015,7 @@
   <dimension ref="A1:J162"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -1078,90 +1044,90 @@
         <v>2</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
     </row>
     <row r="4" spans="1:10" s="1" customFormat="1" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="12" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
     </row>
     <row r="6" spans="1:10" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="9"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="12" t="s">
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="12"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="14">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="13">
         <v>193.298</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="13"/>
       <c r="F7" s="4">
         <v>193.298</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="14">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="13">
         <v>91.066999999999993</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="13"/>
       <c r="F8" s="4">
         <v>91.066999999999993</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="14">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="13">
         <v>75.173000000000002</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="4">
         <v>75.173000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="15">
         <v>133.13560000000001</v>
       </c>
@@ -1171,2135 +1137,2435 @@
       </c>
     </row>
     <row r="11" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="16">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="8">
         <v>-0.9</v>
       </c>
-      <c r="E11" s="16"/>
+      <c r="E11" s="8"/>
       <c r="F11" s="4">
         <v>-2</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="17">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="12">
         <v>131.34</v>
       </c>
-      <c r="E12" s="17"/>
+      <c r="E12" s="12"/>
       <c r="F12" s="4">
         <v>398</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="16">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="8">
         <v>-0.9</v>
       </c>
-      <c r="E13" s="16"/>
+      <c r="E13" s="8"/>
       <c r="F13" s="4">
         <v>-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="16">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8">
         <v>6.8</v>
       </c>
-      <c r="E14" s="16"/>
+      <c r="E14" s="8"/>
       <c r="F14" s="4">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="16">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="8">
         <v>51.3</v>
       </c>
-      <c r="E15" s="16"/>
+      <c r="E15" s="8"/>
       <c r="F15" s="4">
         <v>171</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="16">
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="8">
         <v>18.7</v>
       </c>
-      <c r="E16" s="16"/>
+      <c r="E16" s="8"/>
       <c r="F16" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="16">
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="8">
         <v>-4.2</v>
       </c>
-      <c r="E17" s="16"/>
+      <c r="E17" s="8"/>
       <c r="F17" s="4">
         <v>-12</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="14">
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="13">
         <v>40.273000000000003</v>
       </c>
-      <c r="E18" s="14"/>
+      <c r="E18" s="13"/>
       <c r="F18" s="4">
         <v>40.273000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="18">
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="14">
         <v>1207.979</v>
       </c>
-      <c r="E19" s="18"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="5">
         <v>1207.979</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="16">
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="8">
         <v>31.4</v>
       </c>
-      <c r="E20" s="16"/>
+      <c r="E20" s="8"/>
       <c r="F20" s="4">
         <v>31.4</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="14">
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="13">
         <v>887.29899999999998</v>
       </c>
-      <c r="E21" s="14"/>
+      <c r="E21" s="13"/>
       <c r="F21" s="4">
         <v>887.29899999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14">
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="13">
         <v>35.941000000000003</v>
       </c>
-      <c r="E22" s="14"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="4">
         <v>35.941000000000003</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14">
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="13">
         <v>21.701000000000001</v>
       </c>
-      <c r="E23" s="14"/>
+      <c r="E23" s="13"/>
       <c r="F23" s="4">
         <v>21.701000000000001</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14">
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="13">
         <v>25.745000000000001</v>
       </c>
-      <c r="E24" s="14"/>
+      <c r="E24" s="13"/>
       <c r="F24" s="4">
         <v>25.745000000000001</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14">
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="13">
         <v>33.417999999999999</v>
       </c>
-      <c r="E25" s="14"/>
+      <c r="E25" s="13"/>
       <c r="F25" s="4">
         <v>33.417999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="13">
         <v>117.96599999999999</v>
       </c>
-      <c r="E26" s="14"/>
+      <c r="E26" s="13"/>
       <c r="F26" s="4">
         <v>117.96599999999999</v>
       </c>
     </row>
     <row r="27" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
-      <c r="D27" s="17">
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="12">
         <v>2.16</v>
       </c>
-      <c r="E27" s="17"/>
+      <c r="E27" s="12"/>
       <c r="F27" s="4">
         <v>2.16</v>
       </c>
     </row>
     <row r="28" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="17">
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="12">
         <v>177.22</v>
       </c>
-      <c r="E28" s="17"/>
+      <c r="E28" s="12"/>
       <c r="F28" s="4">
         <v>177.22</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="13">
         <v>-2.8279999999999998</v>
       </c>
-      <c r="E29" s="14"/>
+      <c r="E29" s="13"/>
       <c r="F29" s="4">
         <v>-2.8279999999999998</v>
       </c>
     </row>
     <row r="30" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
-      <c r="D30" s="14">
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="13">
         <v>456.96600000000001</v>
       </c>
-      <c r="E30" s="14"/>
+      <c r="E30" s="13"/>
       <c r="F30" s="4">
         <v>456.96600000000001</v>
       </c>
     </row>
     <row r="31" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="18">
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="14">
         <v>2508.5509999999999</v>
       </c>
-      <c r="E31" s="18"/>
+      <c r="E31" s="14"/>
       <c r="F31" s="5">
         <v>2508.5509999999999</v>
       </c>
     </row>
     <row r="32" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="14">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="13">
         <v>58.606000000000002</v>
       </c>
-      <c r="E32" s="14"/>
+      <c r="E32" s="13"/>
       <c r="F32" s="4">
         <v>58.606000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="14">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="13">
         <v>101.672</v>
       </c>
-      <c r="E33" s="14"/>
+      <c r="E33" s="13"/>
       <c r="F33" s="4">
         <v>101.672</v>
       </c>
     </row>
     <row r="34" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="17">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="12">
         <v>51.45</v>
       </c>
-      <c r="E34" s="17"/>
+      <c r="E34" s="12"/>
       <c r="F34" s="4">
         <v>147</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="16">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="8">
         <v>145.19999999999999</v>
       </c>
-      <c r="E35" s="16"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="4">
         <v>363</v>
       </c>
     </row>
     <row r="36" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="13" t="s">
+      <c r="A36" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="13"/>
-      <c r="C36" s="13"/>
-      <c r="D36" s="16">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="8">
         <v>91.6</v>
       </c>
-      <c r="E36" s="16"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="4">
         <v>229</v>
       </c>
     </row>
     <row r="37" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="13" t="s">
+      <c r="A37" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="13"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="16">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="8">
         <v>60.4</v>
       </c>
-      <c r="E37" s="16"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="4">
         <v>151</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="13" t="s">
+      <c r="A38" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B38" s="13"/>
-      <c r="C38" s="13"/>
-      <c r="D38" s="16">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="8">
         <v>60.8</v>
       </c>
-      <c r="E38" s="16"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="4">
         <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="13" t="s">
+      <c r="A39" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B39" s="13"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="16">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="8">
         <v>20.7</v>
       </c>
-      <c r="E39" s="16"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="4">
         <v>207</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="13" t="s">
+      <c r="A40" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B40" s="13"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="16">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="8">
         <v>102.3</v>
       </c>
-      <c r="E40" s="16"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="4">
         <v>310</v>
       </c>
     </row>
     <row r="41" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="13" t="s">
+      <c r="A41" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B41" s="13"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="16">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="8">
         <v>78.400000000000006</v>
       </c>
-      <c r="E41" s="16"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="4">
         <v>224</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="B42" s="13"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="14">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="13">
         <v>24.925000000000001</v>
       </c>
-      <c r="E42" s="14"/>
+      <c r="E42" s="13"/>
       <c r="F42" s="4">
         <v>24.925000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="13" t="s">
+      <c r="A43" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="B43" s="13"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="16">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="8">
         <v>64.400000000000006</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="4">
         <v>184</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="13" t="s">
+      <c r="A44" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B44" s="13"/>
-      <c r="C44" s="13"/>
-      <c r="D44" s="17">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="12">
         <v>100.45</v>
       </c>
-      <c r="E44" s="17"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="4">
         <v>287</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="13" t="s">
+      <c r="A45" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="B45" s="13"/>
-      <c r="C45" s="13"/>
-      <c r="D45" s="14">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="13">
         <v>350.75599999999997</v>
       </c>
-      <c r="E45" s="14"/>
+      <c r="E45" s="13"/>
       <c r="F45" s="4">
         <v>350.75599999999997</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="13" t="s">
+      <c r="A46" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B46" s="13"/>
-      <c r="C46" s="13"/>
-      <c r="D46" s="17">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="12">
         <v>159.75</v>
       </c>
-      <c r="E46" s="17"/>
+      <c r="E46" s="12"/>
       <c r="F46" s="4">
         <v>159.75</v>
       </c>
     </row>
     <row r="47" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="13" t="s">
+      <c r="A47" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="B47" s="13"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="14">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="13">
         <v>15.021000000000001</v>
       </c>
-      <c r="E47" s="14"/>
+      <c r="E47" s="13"/>
       <c r="F47" s="4">
         <v>15.021000000000001</v>
       </c>
     </row>
     <row r="48" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="13" t="s">
+      <c r="A48" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="13"/>
-      <c r="C48" s="13"/>
-      <c r="D48" s="14">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="13">
         <v>99.495999999999995</v>
       </c>
-      <c r="E48" s="14"/>
+      <c r="E48" s="13"/>
       <c r="F48" s="4">
         <v>99.495999999999995</v>
       </c>
     </row>
     <row r="49" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="13" t="s">
+      <c r="A49" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="B49" s="13"/>
-      <c r="C49" s="13"/>
-      <c r="D49" s="17">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="12">
         <v>186.75</v>
       </c>
-      <c r="E49" s="17"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="4">
         <v>415</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="13" t="s">
+      <c r="A50" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="B50" s="13"/>
-      <c r="C50" s="13"/>
-      <c r="D50" s="14">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="13">
         <v>173.989</v>
       </c>
-      <c r="E50" s="14"/>
+      <c r="E50" s="13"/>
       <c r="F50" s="4">
         <v>173.989</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="13" t="s">
+      <c r="A51" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="B51" s="13"/>
-      <c r="C51" s="13"/>
-      <c r="D51" s="17">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="12">
         <v>203.85</v>
       </c>
-      <c r="E51" s="17"/>
+      <c r="E51" s="12"/>
       <c r="F51" s="4">
         <v>453</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="13" t="s">
+      <c r="A52" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B52" s="13"/>
-      <c r="C52" s="13"/>
-      <c r="D52" s="16">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="8">
         <v>97.2</v>
       </c>
-      <c r="E52" s="16"/>
+      <c r="E52" s="8"/>
       <c r="F52" s="4">
         <v>216</v>
       </c>
     </row>
     <row r="53" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="13" t="s">
+      <c r="A53" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="B53" s="13"/>
-      <c r="C53" s="13"/>
-      <c r="D53" s="14">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="13">
         <v>299.66300000000001</v>
       </c>
-      <c r="E53" s="14"/>
+      <c r="E53" s="13"/>
       <c r="F53" s="4">
         <v>299.66300000000001</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="13" t="s">
+      <c r="A54" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B54" s="13"/>
-      <c r="C54" s="13"/>
-      <c r="D54" s="14">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="13">
         <v>16.472000000000001</v>
       </c>
-      <c r="E54" s="14"/>
+      <c r="E54" s="13"/>
       <c r="F54" s="4">
         <v>16.472000000000001</v>
       </c>
     </row>
     <row r="55" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="13" t="s">
+      <c r="A55" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B55" s="13"/>
-      <c r="C55" s="13"/>
-      <c r="D55" s="16">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="8">
         <v>17.5</v>
       </c>
-      <c r="E55" s="16"/>
+      <c r="E55" s="8"/>
       <c r="F55" s="4">
         <v>175</v>
       </c>
     </row>
     <row r="56" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="13" t="s">
+      <c r="A56" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="B56" s="13"/>
-      <c r="C56" s="13"/>
-      <c r="D56" s="14">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="13">
         <v>56.459000000000003</v>
       </c>
-      <c r="E56" s="14"/>
+      <c r="E56" s="13"/>
       <c r="F56" s="4">
         <v>56.459000000000003</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="13" t="s">
+      <c r="A57" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="B57" s="13"/>
-      <c r="C57" s="13"/>
-      <c r="D57" s="16">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="8">
         <v>15.1</v>
       </c>
-      <c r="E57" s="16"/>
+      <c r="E57" s="8"/>
       <c r="F57" s="4">
         <v>151</v>
       </c>
     </row>
     <row r="58" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="B58" s="13"/>
-      <c r="C58" s="13"/>
-      <c r="D58" s="16">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="8">
         <v>111.2</v>
       </c>
-      <c r="E58" s="16"/>
+      <c r="E58" s="8"/>
       <c r="F58" s="4">
         <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="13" t="s">
+      <c r="A59" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="B59" s="13"/>
-      <c r="C59" s="13"/>
-      <c r="D59" s="19">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="9">
         <v>106</v>
       </c>
-      <c r="E59" s="19"/>
+      <c r="E59" s="9"/>
       <c r="F59" s="4">
         <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="13" t="s">
+      <c r="A60" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B60" s="13"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="14">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="13">
         <v>31.475000000000001</v>
       </c>
-      <c r="E60" s="14"/>
+      <c r="E60" s="13"/>
       <c r="F60" s="4">
         <v>31.475000000000001</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="13" t="s">
+      <c r="A61" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="B61" s="13"/>
-      <c r="C61" s="13"/>
-      <c r="D61" s="16">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="8">
         <v>51.6</v>
       </c>
-      <c r="E61" s="16"/>
+      <c r="E61" s="8"/>
       <c r="F61" s="4">
         <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="13" t="s">
+      <c r="A62" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B62" s="13"/>
-      <c r="C62" s="13"/>
-      <c r="D62" s="17">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="12">
         <v>52.14</v>
       </c>
-      <c r="E62" s="17"/>
+      <c r="E62" s="12"/>
       <c r="F62" s="4">
         <v>158</v>
       </c>
     </row>
     <row r="63" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="13" t="s">
+      <c r="A63" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="B63" s="13"/>
-      <c r="C63" s="13"/>
-      <c r="D63" s="17">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="12">
         <v>36.75</v>
       </c>
-      <c r="E63" s="17"/>
+      <c r="E63" s="12"/>
       <c r="F63" s="4">
         <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="13" t="s">
+      <c r="A64" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="B64" s="13"/>
-      <c r="C64" s="13"/>
-      <c r="D64" s="16">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="8">
         <v>106.4</v>
       </c>
-      <c r="E64" s="16"/>
+      <c r="E64" s="8"/>
       <c r="F64" s="4">
         <v>304</v>
       </c>
     </row>
     <row r="65" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="13" t="s">
+      <c r="A65" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B65" s="13"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="19">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="9">
         <v>133</v>
       </c>
-      <c r="E65" s="19"/>
+      <c r="E65" s="9"/>
       <c r="F65" s="4">
         <v>380</v>
       </c>
     </row>
     <row r="66" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="13" t="s">
+      <c r="A66" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="B66" s="13"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="14">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="13">
         <v>428.27100000000002</v>
       </c>
-      <c r="E66" s="14"/>
+      <c r="E66" s="13"/>
       <c r="F66" s="4">
         <v>428.27100000000002</v>
       </c>
     </row>
     <row r="67" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="13" t="s">
+      <c r="A67" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B67" s="13"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="14">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="13">
         <v>-1.248</v>
       </c>
-      <c r="E67" s="14"/>
+      <c r="E67" s="13"/>
       <c r="F67" s="4">
         <v>-1.248</v>
       </c>
     </row>
     <row r="68" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="13" t="s">
+      <c r="A68" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="13"/>
-      <c r="C68" s="13"/>
-      <c r="D68" s="14">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="13">
         <v>329.08300000000003</v>
       </c>
-      <c r="E68" s="14"/>
+      <c r="E68" s="13"/>
       <c r="F68" s="4">
         <v>329.08300000000003</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="13" t="s">
+      <c r="A69" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="14">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="13">
         <v>-3.4569999999999999</v>
       </c>
-      <c r="E69" s="14"/>
+      <c r="E69" s="13"/>
       <c r="F69" s="4">
         <v>-3.4569999999999999</v>
       </c>
     </row>
     <row r="70" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="13" t="s">
+      <c r="A70" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B70" s="13"/>
-      <c r="C70" s="13"/>
-      <c r="D70" s="14">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="13">
         <v>198.864</v>
       </c>
-      <c r="E70" s="14"/>
+      <c r="E70" s="13"/>
       <c r="F70" s="4">
         <v>198.864</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="13" t="s">
+      <c r="A71" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="14">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="13">
         <v>508.15499999999997</v>
       </c>
-      <c r="E71" s="14"/>
+      <c r="E71" s="13"/>
       <c r="F71" s="4">
         <v>508.15499999999997</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="13" t="s">
+      <c r="A72" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="14">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="13">
         <v>46.244</v>
       </c>
-      <c r="E72" s="14"/>
+      <c r="E72" s="13"/>
       <c r="F72" s="4">
         <v>92.488</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="13" t="s">
+      <c r="A73" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="14">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="13">
         <v>111.096</v>
       </c>
-      <c r="E73" s="14"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="4">
         <v>111.096</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="13" t="s">
+      <c r="A74" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="14">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="13">
         <v>84.704999999999998</v>
       </c>
-      <c r="E74" s="14"/>
+      <c r="E74" s="13"/>
       <c r="F74" s="4">
         <v>84.704999999999998</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="13" t="s">
+      <c r="A75" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="16">
+      <c r="B75" s="7"/>
+      <c r="C75" s="7"/>
+      <c r="D75" s="8">
         <v>108.5</v>
       </c>
-      <c r="E75" s="16"/>
+      <c r="E75" s="8"/>
       <c r="F75" s="4">
         <v>217</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="13" t="s">
+      <c r="A76" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="16">
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="8">
         <v>62.5</v>
       </c>
-      <c r="E76" s="16"/>
+      <c r="E76" s="8"/>
       <c r="F76" s="4">
         <v>125</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="13" t="s">
+      <c r="A77" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="16">
+      <c r="B77" s="7"/>
+      <c r="C77" s="7"/>
+      <c r="D77" s="8">
         <v>66.400000000000006</v>
       </c>
-      <c r="E77" s="16"/>
+      <c r="E77" s="8"/>
       <c r="F77" s="4">
         <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="13" t="s">
+      <c r="A78" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="14">
+      <c r="B78" s="7"/>
+      <c r="C78" s="7"/>
+      <c r="D78" s="13">
         <v>359.35700000000003</v>
       </c>
-      <c r="E78" s="14"/>
+      <c r="E78" s="13"/>
       <c r="F78" s="4">
         <v>359.35700000000003</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="13" t="s">
+      <c r="A79" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="14">
+      <c r="B79" s="7"/>
+      <c r="C79" s="7"/>
+      <c r="D79" s="13">
         <v>23.367999999999999</v>
       </c>
-      <c r="E79" s="14"/>
+      <c r="E79" s="13"/>
       <c r="F79" s="4">
         <v>23.367999999999999</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="13" t="s">
+      <c r="A80" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="19">
+      <c r="B80" s="7"/>
+      <c r="C80" s="7"/>
+      <c r="D80" s="9">
         <v>48</v>
       </c>
-      <c r="E80" s="19"/>
+      <c r="E80" s="9"/>
       <c r="F80" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="13" t="s">
+      <c r="A81" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="14">
+      <c r="B81" s="7"/>
+      <c r="C81" s="7"/>
+      <c r="D81" s="13">
         <v>43.286999999999999</v>
       </c>
-      <c r="E81" s="14"/>
+      <c r="E81" s="13"/>
       <c r="F81" s="4">
         <v>43.286999999999999</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="13" t="s">
+      <c r="A82" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="16">
+      <c r="B82" s="7"/>
+      <c r="C82" s="7"/>
+      <c r="D82" s="8">
         <v>71.400000000000006</v>
       </c>
-      <c r="E82" s="16"/>
+      <c r="E82" s="8"/>
       <c r="F82" s="4">
         <v>238</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="16">
+      <c r="B83" s="7"/>
+      <c r="C83" s="7"/>
+      <c r="D83" s="8">
         <v>32.1</v>
       </c>
-      <c r="E83" s="16"/>
+      <c r="E83" s="8"/>
       <c r="F83" s="4">
         <v>107</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="16">
+      <c r="B84" s="7"/>
+      <c r="C84" s="7"/>
+      <c r="D84" s="8">
         <v>28.5</v>
       </c>
-      <c r="E84" s="16"/>
+      <c r="E84" s="8"/>
       <c r="F84" s="4">
         <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="17">
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="D85" s="12">
         <v>9.36</v>
       </c>
-      <c r="E85" s="17"/>
+      <c r="E85" s="12"/>
       <c r="F85" s="4">
         <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="17">
+      <c r="B86" s="7"/>
+      <c r="C86" s="7"/>
+      <c r="D86" s="12">
         <v>3.85</v>
       </c>
-      <c r="E86" s="17"/>
+      <c r="E86" s="12"/>
       <c r="F86" s="4">
         <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="13" t="s">
+      <c r="A87" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="17">
+      <c r="B87" s="7"/>
+      <c r="C87" s="7"/>
+      <c r="D87" s="12">
         <v>7.32</v>
       </c>
-      <c r="E87" s="17"/>
+      <c r="E87" s="12"/>
       <c r="F87" s="4">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="13" t="s">
+      <c r="A88" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="16">
+      <c r="B88" s="7"/>
+      <c r="C88" s="7"/>
+      <c r="D88" s="8">
         <v>6.4</v>
       </c>
-      <c r="E88" s="16"/>
+      <c r="E88" s="8"/>
       <c r="F88" s="4">
         <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="13" t="s">
+      <c r="A89" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="14">
+      <c r="B89" s="7"/>
+      <c r="C89" s="7"/>
+      <c r="D89" s="13">
         <v>4.5650000000000004</v>
       </c>
-      <c r="E89" s="14"/>
+      <c r="E89" s="13"/>
       <c r="F89" s="4">
         <v>83</v>
       </c>
     </row>
     <row r="90" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="13" t="s">
+      <c r="A90" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="17">
+      <c r="B90" s="7"/>
+      <c r="C90" s="7"/>
+      <c r="D90" s="12">
         <v>5.0599999999999996</v>
       </c>
-      <c r="E90" s="17"/>
+      <c r="E90" s="12"/>
       <c r="F90" s="4">
         <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="13" t="s">
+      <c r="A91" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="B91" s="13"/>
-      <c r="C91" s="13"/>
-      <c r="D91" s="14">
+      <c r="B91" s="7"/>
+      <c r="C91" s="7"/>
+      <c r="D91" s="13">
         <v>4.0149999999999997</v>
       </c>
-      <c r="E91" s="14"/>
+      <c r="E91" s="13"/>
       <c r="F91" s="4">
         <v>73</v>
       </c>
     </row>
     <row r="92" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="13" t="s">
+      <c r="A92" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="13"/>
-      <c r="D92" s="14">
+      <c r="B92" s="7"/>
+      <c r="C92" s="7"/>
+      <c r="D92" s="13">
         <v>137.625</v>
       </c>
-      <c r="E92" s="14"/>
+      <c r="E92" s="13"/>
       <c r="F92" s="4">
         <v>367</v>
       </c>
     </row>
     <row r="93" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="13" t="s">
+      <c r="A93" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="13"/>
-      <c r="D93" s="17">
+      <c r="B93" s="7"/>
+      <c r="C93" s="7"/>
+      <c r="D93" s="12">
         <v>8.0500000000000007</v>
       </c>
-      <c r="E93" s="17"/>
+      <c r="E93" s="12"/>
       <c r="F93" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="13" t="s">
+      <c r="A94" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="B94" s="13"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="16">
+      <c r="B94" s="7"/>
+      <c r="C94" s="7"/>
+      <c r="D94" s="8">
         <v>49.5</v>
       </c>
-      <c r="E94" s="16"/>
+      <c r="E94" s="8"/>
       <c r="F94" s="4">
         <v>110</v>
       </c>
     </row>
     <row r="95" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="13" t="s">
+      <c r="A95" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="B95" s="13"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="19">
+      <c r="B95" s="7"/>
+      <c r="C95" s="7"/>
+      <c r="D95" s="9">
         <v>28</v>
       </c>
-      <c r="E95" s="19"/>
+      <c r="E95" s="9"/>
       <c r="F95" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="96" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="13" t="s">
+      <c r="A96" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="17">
+      <c r="B96" s="7"/>
+      <c r="C96" s="7"/>
+      <c r="D96" s="12">
         <v>-0.35</v>
       </c>
-      <c r="E96" s="17"/>
+      <c r="E96" s="12"/>
       <c r="F96" s="4">
         <v>-1</v>
       </c>
     </row>
     <row r="97" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A97" s="13" t="s">
+      <c r="A97" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="B97" s="13"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="16">
+      <c r="B97" s="7"/>
+      <c r="C97" s="7"/>
+      <c r="D97" s="8">
         <v>21.9</v>
       </c>
-      <c r="E97" s="16"/>
+      <c r="E97" s="8"/>
       <c r="F97" s="4">
         <v>73</v>
       </c>
     </row>
     <row r="98" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="13" t="s">
+      <c r="A98" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="B98" s="13"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="14">
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="D98" s="13">
         <v>62.139000000000003</v>
       </c>
-      <c r="E98" s="14"/>
+      <c r="E98" s="13"/>
       <c r="F98" s="4">
         <v>62.139000000000003</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="13" t="s">
+      <c r="A99" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B99" s="13"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="14">
+      <c r="B99" s="7"/>
+      <c r="C99" s="7"/>
+      <c r="D99" s="13">
         <v>2.1480000000000001</v>
       </c>
-      <c r="E99" s="14"/>
+      <c r="E99" s="13"/>
       <c r="F99" s="4">
         <v>2.1480000000000001</v>
       </c>
     </row>
     <row r="100" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="13" t="s">
+      <c r="A100" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B100" s="13"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="16">
+      <c r="B100" s="7"/>
+      <c r="C100" s="7"/>
+      <c r="D100" s="8">
         <v>24.5</v>
       </c>
-      <c r="E100" s="16"/>
+      <c r="E100" s="8"/>
       <c r="F100" s="4">
         <v>35</v>
       </c>
     </row>
     <row r="101" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="13" t="s">
+      <c r="A101" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B101" s="13"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="19">
+      <c r="B101" s="7"/>
+      <c r="C101" s="7"/>
+      <c r="D101" s="9">
         <v>15</v>
       </c>
-      <c r="E101" s="19"/>
+      <c r="E101" s="9"/>
       <c r="F101" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="102" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="13" t="s">
+      <c r="A102" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="B102" s="13"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="16">
+      <c r="B102" s="7"/>
+      <c r="C102" s="7"/>
+      <c r="D102" s="8">
         <v>4.5</v>
       </c>
-      <c r="E102" s="16"/>
+      <c r="E102" s="8"/>
       <c r="F102" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="103" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A103" s="13" t="s">
+      <c r="A103" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B103" s="13"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="17">
+      <c r="B103" s="7"/>
+      <c r="C103" s="7"/>
+      <c r="D103" s="12">
         <v>12.24</v>
       </c>
-      <c r="E103" s="17"/>
+      <c r="E103" s="12"/>
       <c r="F103" s="4">
         <v>51</v>
       </c>
     </row>
     <row r="104" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A104" s="13" t="s">
+      <c r="A104" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="16">
+      <c r="B104" s="7"/>
+      <c r="C104" s="7"/>
+      <c r="D104" s="8">
         <v>44.1</v>
       </c>
-      <c r="E104" s="16"/>
+      <c r="E104" s="8"/>
       <c r="F104" s="4">
         <v>147</v>
       </c>
     </row>
     <row r="105" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A105" s="13" t="s">
+      <c r="A105" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="B105" s="13"/>
-      <c r="C105" s="13"/>
-      <c r="D105" s="16">
+      <c r="B105" s="7"/>
+      <c r="C105" s="7"/>
+      <c r="D105" s="8">
         <v>12.6</v>
       </c>
-      <c r="E105" s="16"/>
+      <c r="E105" s="8"/>
       <c r="F105" s="4">
         <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A106" s="13" t="s">
+      <c r="A106" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="B106" s="13"/>
-      <c r="C106" s="13"/>
-      <c r="D106" s="16">
+      <c r="B106" s="7"/>
+      <c r="C106" s="7"/>
+      <c r="D106" s="8">
         <v>44.4</v>
       </c>
-      <c r="E106" s="16"/>
+      <c r="E106" s="8"/>
       <c r="F106" s="4">
         <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A107" s="13" t="s">
+      <c r="A107" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="13"/>
-      <c r="D107" s="17">
+      <c r="B107" s="7"/>
+      <c r="C107" s="7"/>
+      <c r="D107" s="12">
         <v>6.03</v>
       </c>
-      <c r="E107" s="17"/>
+      <c r="E107" s="12"/>
       <c r="F107" s="4">
         <v>67</v>
       </c>
     </row>
     <row r="108" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A108" s="13" t="s">
+      <c r="A108" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="B108" s="13"/>
-      <c r="C108" s="13"/>
-      <c r="D108" s="17">
+      <c r="B108" s="7"/>
+      <c r="C108" s="7"/>
+      <c r="D108" s="12">
         <v>25.92</v>
       </c>
-      <c r="E108" s="17"/>
+      <c r="E108" s="12"/>
       <c r="F108" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="109" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="13" t="s">
+      <c r="A109" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="17">
+      <c r="B109" s="7"/>
+      <c r="C109" s="7"/>
+      <c r="D109" s="12">
         <v>4.4800000000000004</v>
       </c>
-      <c r="E109" s="17"/>
+      <c r="E109" s="12"/>
       <c r="F109" s="4">
         <v>4.4800000000000004</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A110" s="13" t="s">
+      <c r="A110" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="19">
+      <c r="B110" s="7"/>
+      <c r="C110" s="7"/>
+      <c r="D110" s="9">
         <v>25</v>
       </c>
-      <c r="E110" s="19"/>
+      <c r="E110" s="9"/>
       <c r="F110" s="4">
         <v>100</v>
       </c>
     </row>
     <row r="111" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A111" s="13" t="s">
+      <c r="A111" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="17">
+      <c r="B111" s="7"/>
+      <c r="C111" s="7"/>
+      <c r="D111" s="12">
         <v>22.25</v>
       </c>
-      <c r="E111" s="17"/>
+      <c r="E111" s="12"/>
       <c r="F111" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="112" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="13" t="s">
+      <c r="A112" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="16">
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="8">
         <v>25.9</v>
       </c>
-      <c r="E112" s="16"/>
+      <c r="E112" s="8"/>
       <c r="F112" s="4">
         <v>25.9</v>
       </c>
     </row>
     <row r="113" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A113" s="13" t="s">
+      <c r="A113" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="19">
+      <c r="B113" s="7"/>
+      <c r="C113" s="7"/>
+      <c r="D113" s="9">
         <v>63</v>
       </c>
-      <c r="E113" s="19"/>
+      <c r="E113" s="9"/>
       <c r="F113" s="4">
         <v>63</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A114" s="13" t="s">
+      <c r="A114" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="17">
+      <c r="B114" s="7"/>
+      <c r="C114" s="7"/>
+      <c r="D114" s="12">
         <v>36.25</v>
       </c>
-      <c r="E114" s="17"/>
+      <c r="E114" s="12"/>
       <c r="F114" s="4">
         <v>145</v>
       </c>
     </row>
     <row r="115" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A115" s="13" t="s">
+      <c r="A115" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="17">
+      <c r="B115" s="7"/>
+      <c r="C115" s="7"/>
+      <c r="D115" s="12">
         <v>22.75</v>
       </c>
-      <c r="E115" s="17"/>
+      <c r="E115" s="12"/>
       <c r="F115" s="4">
         <v>91</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A116" s="13" t="s">
+      <c r="A116" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="17">
+      <c r="B116" s="7"/>
+      <c r="C116" s="7"/>
+      <c r="D116" s="12">
         <v>11.75</v>
       </c>
-      <c r="E116" s="17"/>
+      <c r="E116" s="12"/>
       <c r="F116" s="4">
         <v>47</v>
       </c>
     </row>
     <row r="117" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A117" s="13" t="s">
+      <c r="A117" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="17">
+      <c r="B117" s="7"/>
+      <c r="C117" s="7"/>
+      <c r="D117" s="12">
         <v>17.25</v>
       </c>
-      <c r="E117" s="17"/>
+      <c r="E117" s="12"/>
       <c r="F117" s="4">
         <v>69</v>
       </c>
     </row>
     <row r="118" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A118" s="13" t="s">
+      <c r="A118" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="17">
+      <c r="B118" s="7"/>
+      <c r="C118" s="7"/>
+      <c r="D118" s="12">
         <v>19.75</v>
       </c>
-      <c r="E118" s="17"/>
+      <c r="E118" s="12"/>
       <c r="F118" s="4">
         <v>79</v>
       </c>
     </row>
     <row r="119" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A119" s="13" t="s">
+      <c r="A119" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="19">
+      <c r="B119" s="7"/>
+      <c r="C119" s="7"/>
+      <c r="D119" s="9">
         <v>24</v>
       </c>
-      <c r="E119" s="19"/>
+      <c r="E119" s="9"/>
       <c r="F119" s="4">
         <v>24</v>
       </c>
     </row>
     <row r="120" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A120" s="13" t="s">
+      <c r="A120" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="19">
+      <c r="B120" s="7"/>
+      <c r="C120" s="7"/>
+      <c r="D120" s="9">
         <v>7</v>
       </c>
-      <c r="E120" s="19"/>
+      <c r="E120" s="9"/>
       <c r="F120" s="4">
         <v>28</v>
       </c>
     </row>
     <row r="121" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A121" s="13" t="s">
+      <c r="A121" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="16">
+      <c r="B121" s="7"/>
+      <c r="C121" s="7"/>
+      <c r="D121" s="8">
         <v>11.9</v>
       </c>
-      <c r="E121" s="16"/>
+      <c r="E121" s="8"/>
       <c r="F121" s="4">
         <v>17</v>
       </c>
     </row>
     <row r="122" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A122" s="13" t="s">
+      <c r="A122" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="13"/>
-      <c r="D122" s="16">
+      <c r="B122" s="7"/>
+      <c r="C122" s="7"/>
+      <c r="D122" s="8">
         <v>7.2</v>
       </c>
-      <c r="E122" s="16"/>
+      <c r="E122" s="8"/>
       <c r="F122" s="4">
         <v>18</v>
       </c>
     </row>
     <row r="123" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A123" s="13" t="s">
+      <c r="A123" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="B123" s="13"/>
-      <c r="C123" s="13"/>
-      <c r="D123" s="16">
+      <c r="B123" s="7"/>
+      <c r="C123" s="7"/>
+      <c r="D123" s="8">
         <v>20.3</v>
       </c>
-      <c r="E123" s="16"/>
+      <c r="E123" s="8"/>
       <c r="F123" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="124" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A124" s="13" t="s">
+      <c r="A124" s="7" t="s">
         <v>125</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="13"/>
-      <c r="D124" s="16">
+      <c r="B124" s="7"/>
+      <c r="C124" s="7"/>
+      <c r="D124" s="8">
         <v>10.5</v>
       </c>
-      <c r="E124" s="16"/>
+      <c r="E124" s="8"/>
       <c r="F124" s="4">
         <v>15</v>
       </c>
     </row>
     <row r="125" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A125" s="13" t="s">
+      <c r="A125" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B125" s="13"/>
-      <c r="C125" s="13"/>
-      <c r="D125" s="16">
+      <c r="B125" s="7"/>
+      <c r="C125" s="7"/>
+      <c r="D125" s="8">
         <v>74.2</v>
       </c>
-      <c r="E125" s="16"/>
+      <c r="E125" s="8"/>
       <c r="F125" s="4">
         <v>106</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A126" s="13" t="s">
+      <c r="A126" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="13"/>
-      <c r="D126" s="16">
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="D126" s="8">
         <v>70.2</v>
       </c>
-      <c r="E126" s="16"/>
+      <c r="E126" s="8"/>
       <c r="F126" s="4">
         <v>70.2</v>
       </c>
     </row>
     <row r="127" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A127" s="13" t="s">
+      <c r="A127" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="B127" s="13"/>
-      <c r="C127" s="13"/>
-      <c r="D127" s="19">
+      <c r="B127" s="7"/>
+      <c r="C127" s="7"/>
+      <c r="D127" s="9">
         <v>75</v>
       </c>
-      <c r="E127" s="19"/>
+      <c r="E127" s="9"/>
       <c r="F127" s="4">
         <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A128" s="13" t="s">
+      <c r="A128" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="B128" s="13"/>
-      <c r="C128" s="13"/>
-      <c r="D128" s="16">
+      <c r="B128" s="7"/>
+      <c r="C128" s="7"/>
+      <c r="D128" s="8">
         <v>0.9</v>
       </c>
-      <c r="E128" s="16"/>
+      <c r="E128" s="8"/>
       <c r="F128" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A129" s="13" t="s">
+      <c r="A129" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="13"/>
-      <c r="D129" s="16">
+      <c r="B129" s="7"/>
+      <c r="C129" s="7"/>
+      <c r="D129" s="8">
         <v>64.8</v>
       </c>
-      <c r="E129" s="16"/>
+      <c r="E129" s="8"/>
       <c r="F129" s="4">
         <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A130" s="13" t="s">
+      <c r="A130" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="13"/>
-      <c r="D130" s="16">
+      <c r="B130" s="7"/>
+      <c r="C130" s="7"/>
+      <c r="D130" s="8">
         <v>113.4</v>
       </c>
-      <c r="E130" s="16"/>
+      <c r="E130" s="8"/>
       <c r="F130" s="4">
         <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A131" s="13" t="s">
+      <c r="A131" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B131" s="13"/>
-      <c r="C131" s="13"/>
-      <c r="D131" s="16">
+      <c r="B131" s="7"/>
+      <c r="C131" s="7"/>
+      <c r="D131" s="8">
         <v>60.8</v>
       </c>
-      <c r="E131" s="16"/>
+      <c r="E131" s="8"/>
       <c r="F131" s="4">
         <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A132" s="13" t="s">
+      <c r="A132" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="B132" s="13"/>
-      <c r="C132" s="13"/>
-      <c r="D132" s="16">
+      <c r="B132" s="7"/>
+      <c r="C132" s="7"/>
+      <c r="D132" s="8">
         <v>100.8</v>
       </c>
-      <c r="E132" s="16"/>
+      <c r="E132" s="8"/>
       <c r="F132" s="4">
         <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A133" s="13" t="s">
+      <c r="A133" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="B133" s="13"/>
-      <c r="C133" s="13"/>
-      <c r="D133" s="17">
+      <c r="B133" s="7"/>
+      <c r="C133" s="7"/>
+      <c r="D133" s="12">
         <v>19.579999999999998</v>
       </c>
-      <c r="E133" s="17"/>
+      <c r="E133" s="12"/>
       <c r="F133" s="4">
         <v>89</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A134" s="13" t="s">
+      <c r="A134" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="B134" s="13"/>
-      <c r="C134" s="13"/>
-      <c r="D134" s="16">
+      <c r="B134" s="7"/>
+      <c r="C134" s="7"/>
+      <c r="D134" s="8">
         <v>10.8</v>
       </c>
-      <c r="E134" s="16"/>
+      <c r="E134" s="8"/>
       <c r="F134" s="4">
         <v>27</v>
       </c>
     </row>
     <row r="135" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A135" s="13" t="s">
+      <c r="A135" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="B135" s="13"/>
-      <c r="C135" s="13"/>
-      <c r="D135" s="16">
+      <c r="B135" s="7"/>
+      <c r="C135" s="7"/>
+      <c r="D135" s="8">
         <v>4.8</v>
       </c>
-      <c r="E135" s="16"/>
+      <c r="E135" s="8"/>
       <c r="F135" s="4">
         <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A136" s="13" t="s">
+      <c r="A136" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="B136" s="13"/>
-      <c r="C136" s="13"/>
-      <c r="D136" s="16">
+      <c r="B136" s="7"/>
+      <c r="C136" s="7"/>
+      <c r="D136" s="8">
         <v>28.7</v>
       </c>
-      <c r="E136" s="16"/>
+      <c r="E136" s="8"/>
       <c r="F136" s="4">
         <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A137" s="13" t="s">
+      <c r="A137" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="B137" s="13"/>
-      <c r="C137" s="13"/>
-      <c r="D137" s="16">
+      <c r="B137" s="7"/>
+      <c r="C137" s="7"/>
+      <c r="D137" s="8">
         <v>20.3</v>
       </c>
-      <c r="E137" s="16"/>
+      <c r="E137" s="8"/>
       <c r="F137" s="4">
         <v>29</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A138" s="13" t="s">
+      <c r="A138" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="B138" s="13"/>
-      <c r="C138" s="13"/>
-      <c r="D138" s="16">
+      <c r="B138" s="7"/>
+      <c r="C138" s="7"/>
+      <c r="D138" s="8">
         <v>16.100000000000001</v>
       </c>
-      <c r="E138" s="16"/>
+      <c r="E138" s="8"/>
       <c r="F138" s="4">
         <v>23</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A139" s="13" t="s">
+      <c r="A139" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="B139" s="13"/>
-      <c r="C139" s="13"/>
-      <c r="D139" s="16">
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="D139" s="8">
         <v>25.2</v>
       </c>
-      <c r="E139" s="16"/>
+      <c r="E139" s="8"/>
       <c r="F139" s="4">
         <v>36</v>
       </c>
     </row>
     <row r="140" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A140" s="13" t="s">
+      <c r="A140" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="B140" s="13"/>
-      <c r="C140" s="13"/>
-      <c r="D140" s="16">
+      <c r="B140" s="7"/>
+      <c r="C140" s="7"/>
+      <c r="D140" s="8">
         <v>61.2</v>
       </c>
-      <c r="E140" s="16"/>
+      <c r="E140" s="8"/>
       <c r="F140" s="4">
         <v>68</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="B141" s="13"/>
-      <c r="C141" s="13"/>
-      <c r="D141" s="16">
+      <c r="B141" s="7"/>
+      <c r="C141" s="7"/>
+      <c r="D141" s="8">
         <v>48.6</v>
       </c>
-      <c r="E141" s="16"/>
+      <c r="E141" s="8"/>
       <c r="F141" s="4">
         <v>54</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A142" s="13" t="s">
+      <c r="A142" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="B142" s="13"/>
-      <c r="C142" s="13"/>
-      <c r="D142" s="17">
+      <c r="B142" s="7"/>
+      <c r="C142" s="7"/>
+      <c r="D142" s="12">
         <v>19.78</v>
       </c>
-      <c r="E142" s="17"/>
+      <c r="E142" s="12"/>
       <c r="F142" s="4">
         <v>46</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A143" s="13" t="s">
+      <c r="A143" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="B143" s="13"/>
-      <c r="C143" s="13"/>
-      <c r="D143" s="19">
+      <c r="B143" s="7"/>
+      <c r="C143" s="7"/>
+      <c r="D143" s="9">
         <v>50</v>
       </c>
-      <c r="E143" s="19"/>
+      <c r="E143" s="9"/>
       <c r="F143" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="144" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A144" s="13" t="s">
+      <c r="A144" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="13"/>
-      <c r="D144" s="19">
+      <c r="B144" s="7"/>
+      <c r="C144" s="7"/>
+      <c r="D144" s="9">
         <v>112</v>
       </c>
-      <c r="E144" s="19"/>
+      <c r="E144" s="9"/>
       <c r="F144" s="4">
         <v>112</v>
       </c>
     </row>
     <row r="145" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A145" s="13" t="s">
+      <c r="A145" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="B145" s="13"/>
-      <c r="C145" s="13"/>
-      <c r="D145" s="16">
+      <c r="B145" s="7"/>
+      <c r="C145" s="7"/>
+      <c r="D145" s="8">
         <v>0.2</v>
       </c>
-      <c r="E145" s="16"/>
+      <c r="E145" s="8"/>
       <c r="F145" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="B146" s="13"/>
-      <c r="C146" s="13"/>
-      <c r="D146" s="16">
+      <c r="B146" s="7"/>
+      <c r="C146" s="7"/>
+      <c r="D146" s="8">
         <v>77.7</v>
       </c>
-      <c r="E146" s="16"/>
+      <c r="E146" s="8"/>
       <c r="F146" s="4">
         <v>77.7</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A147" s="13" t="s">
+      <c r="A147" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="B147" s="13"/>
-      <c r="C147" s="13"/>
-      <c r="D147" s="16">
+      <c r="B147" s="7"/>
+      <c r="C147" s="7"/>
+      <c r="D147" s="8">
         <v>11.1</v>
       </c>
-      <c r="E147" s="16"/>
+      <c r="E147" s="8"/>
       <c r="F147" s="4">
         <v>11.1</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A148" s="13" t="s">
+      <c r="A148" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="B148" s="13"/>
-      <c r="C148" s="13"/>
-      <c r="D148" s="16">
+      <c r="B148" s="7"/>
+      <c r="C148" s="7"/>
+      <c r="D148" s="8">
         <v>44.8</v>
       </c>
-      <c r="E148" s="16"/>
+      <c r="E148" s="8"/>
       <c r="F148" s="4">
         <v>44.8</v>
       </c>
     </row>
     <row r="149" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A149" s="13" t="s">
+      <c r="A149" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="13"/>
-      <c r="D149" s="19">
+      <c r="B149" s="7"/>
+      <c r="C149" s="7"/>
+      <c r="D149" s="9">
         <v>30</v>
       </c>
-      <c r="E149" s="19"/>
+      <c r="E149" s="9"/>
       <c r="F149" s="4">
         <v>30</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A150" s="13" t="s">
+      <c r="A150" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="13"/>
-      <c r="D150" s="17">
+      <c r="B150" s="7"/>
+      <c r="C150" s="7"/>
+      <c r="D150" s="12">
         <v>0.72</v>
       </c>
-      <c r="E150" s="17"/>
+      <c r="E150" s="12"/>
       <c r="F150" s="4">
         <v>8</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A151" s="13" t="s">
+      <c r="A151" s="7" t="s">
         <v>152</v>
       </c>
-      <c r="B151" s="13"/>
-      <c r="C151" s="13"/>
-      <c r="D151" s="19">
+      <c r="B151" s="7"/>
+      <c r="C151" s="7"/>
+      <c r="D151" s="9">
         <v>18</v>
       </c>
-      <c r="E151" s="19"/>
+      <c r="E151" s="9"/>
       <c r="F151" s="4">
         <v>72</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A152" s="13" t="s">
+      <c r="A152" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="B152" s="13"/>
-      <c r="C152" s="13"/>
-      <c r="D152" s="19">
+      <c r="B152" s="7"/>
+      <c r="C152" s="7"/>
+      <c r="D152" s="9">
         <v>30</v>
       </c>
-      <c r="E152" s="19"/>
+      <c r="E152" s="9"/>
       <c r="F152" s="4">
         <v>120</v>
       </c>
     </row>
     <row r="153" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A153" s="13" t="s">
+      <c r="A153" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="B153" s="13"/>
-      <c r="C153" s="13"/>
-      <c r="D153" s="16">
+      <c r="B153" s="7"/>
+      <c r="C153" s="7"/>
+      <c r="D153" s="8">
         <v>25.5</v>
       </c>
-      <c r="E153" s="16"/>
+      <c r="E153" s="8"/>
       <c r="F153" s="4">
         <v>85</v>
       </c>
     </row>
     <row r="154" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="13" t="s">
+      <c r="A154" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="B154" s="13"/>
-      <c r="C154" s="13"/>
-      <c r="D154" s="19">
+      <c r="B154" s="7"/>
+      <c r="C154" s="7"/>
+      <c r="D154" s="9">
         <v>24</v>
       </c>
-      <c r="E154" s="19"/>
+      <c r="E154" s="9"/>
       <c r="F154" s="4">
         <v>80</v>
       </c>
     </row>
     <row r="155" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="13" t="s">
+      <c r="A155" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="B155" s="13"/>
-      <c r="C155" s="13"/>
-      <c r="D155" s="16">
+      <c r="B155" s="7"/>
+      <c r="C155" s="7"/>
+      <c r="D155" s="8">
         <v>12.2</v>
       </c>
-      <c r="E155" s="16"/>
+      <c r="E155" s="8"/>
       <c r="F155" s="4">
         <v>12.2</v>
       </c>
     </row>
     <row r="156" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="13" t="s">
+      <c r="A156" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B156" s="13"/>
-      <c r="C156" s="13"/>
-      <c r="D156" s="16">
+      <c r="B156" s="7"/>
+      <c r="C156" s="7"/>
+      <c r="D156" s="8">
         <v>7.5</v>
       </c>
-      <c r="E156" s="16"/>
+      <c r="E156" s="8"/>
       <c r="F156" s="4">
         <v>25</v>
       </c>
     </row>
     <row r="157" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A157" s="13" t="s">
+      <c r="A157" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="13"/>
-      <c r="D157" s="17">
+      <c r="B157" s="7"/>
+      <c r="C157" s="7"/>
+      <c r="D157" s="12">
         <v>22.56</v>
       </c>
-      <c r="E157" s="17"/>
+      <c r="E157" s="12"/>
       <c r="F157" s="4">
         <v>47</v>
       </c>
     </row>
     <row r="158" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A158" s="13" t="s">
+      <c r="A158" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="B158" s="13"/>
-      <c r="C158" s="13"/>
-      <c r="D158" s="19">
+      <c r="B158" s="7"/>
+      <c r="C158" s="7"/>
+      <c r="D158" s="9">
         <v>43</v>
       </c>
-      <c r="E158" s="19"/>
+      <c r="E158" s="9"/>
       <c r="F158" s="4">
         <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A159" s="13" t="s">
+      <c r="A159" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="B159" s="13"/>
-      <c r="C159" s="13"/>
-      <c r="D159" s="16">
+      <c r="B159" s="7"/>
+      <c r="C159" s="7"/>
+      <c r="D159" s="8">
         <v>55.5</v>
       </c>
-      <c r="E159" s="16"/>
+      <c r="E159" s="8"/>
       <c r="F159" s="4">
         <v>222</v>
       </c>
     </row>
     <row r="160" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A160" s="13" t="s">
+      <c r="A160" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B160" s="13"/>
-      <c r="C160" s="13"/>
-      <c r="D160" s="16">
+      <c r="B160" s="7"/>
+      <c r="C160" s="7"/>
+      <c r="D160" s="8">
         <v>21.6</v>
       </c>
-      <c r="E160" s="16"/>
+      <c r="E160" s="8"/>
       <c r="F160" s="4">
         <v>21.6</v>
       </c>
     </row>
     <row r="161" spans="1:6" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A161" s="13" t="s">
+      <c r="A161" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B161" s="13"/>
-      <c r="C161" s="13"/>
-      <c r="D161" s="19">
+      <c r="B161" s="7"/>
+      <c r="C161" s="7"/>
+      <c r="D161" s="9">
         <v>50</v>
       </c>
-      <c r="E161" s="19"/>
+      <c r="E161" s="9"/>
       <c r="F161" s="4">
         <v>50</v>
       </c>
     </row>
     <row r="162" spans="1:6" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A162" s="20" t="s">
+      <c r="A162" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B162" s="20"/>
-      <c r="C162" s="20"/>
-      <c r="D162" s="21">
+      <c r="B162" s="10"/>
+      <c r="C162" s="10"/>
+      <c r="D162" s="11">
         <v>14384.8956</v>
       </c>
-      <c r="E162" s="21"/>
+      <c r="E162" s="11"/>
       <c r="F162" s="6">
         <v>22113.687999999998</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="316">
+    <mergeCell ref="C3:J3"/>
+    <mergeCell ref="A5:C6"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A8:C8"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="A14:C14"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="A26:C26"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="A27:C27"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="A30:C30"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="A31:C31"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="A35:C35"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="A37:C37"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="A38:C38"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="A46:C46"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="A56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="A57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="A58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="A59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="A60:C60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="A62:C62"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="A63:C63"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="A64:C64"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="A65:C65"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="A66:C66"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="A67:C67"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="A68:C68"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="A69:C69"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="A71:C71"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="A72:C72"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="A73:C73"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="A74:C74"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="A75:C75"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="A77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="A78:C78"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="A79:C79"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="A82:C82"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="A83:C83"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="A84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="A85:C85"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="A86:C86"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="A87:C87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="A88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="A89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="A90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="A91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="A92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="A93:C93"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="A95:C95"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="A96:C96"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="A97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="A98:C98"/>
+    <mergeCell ref="D98:E98"/>
+    <mergeCell ref="A99:C99"/>
+    <mergeCell ref="D99:E99"/>
+    <mergeCell ref="A100:C100"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="A101:C101"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="A102:C102"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="A103:C103"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="A104:C104"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="A105:C105"/>
+    <mergeCell ref="D105:E105"/>
+    <mergeCell ref="A106:C106"/>
+    <mergeCell ref="D106:E106"/>
+    <mergeCell ref="A107:C107"/>
+    <mergeCell ref="D107:E107"/>
+    <mergeCell ref="A108:C108"/>
+    <mergeCell ref="D108:E108"/>
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="D109:E109"/>
+    <mergeCell ref="A110:C110"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="A111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="A112:C112"/>
+    <mergeCell ref="D112:E112"/>
+    <mergeCell ref="A113:C113"/>
+    <mergeCell ref="D113:E113"/>
+    <mergeCell ref="A114:C114"/>
+    <mergeCell ref="D114:E114"/>
+    <mergeCell ref="A115:C115"/>
+    <mergeCell ref="D115:E115"/>
+    <mergeCell ref="A116:C116"/>
+    <mergeCell ref="D116:E116"/>
+    <mergeCell ref="A117:C117"/>
+    <mergeCell ref="D117:E117"/>
+    <mergeCell ref="A118:C118"/>
+    <mergeCell ref="D118:E118"/>
+    <mergeCell ref="A119:C119"/>
+    <mergeCell ref="D119:E119"/>
+    <mergeCell ref="A120:C120"/>
+    <mergeCell ref="D120:E120"/>
+    <mergeCell ref="A121:C121"/>
+    <mergeCell ref="D121:E121"/>
+    <mergeCell ref="A122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="A123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="A124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="A125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="A126:C126"/>
+    <mergeCell ref="D126:E126"/>
+    <mergeCell ref="A127:C127"/>
+    <mergeCell ref="D127:E127"/>
+    <mergeCell ref="A128:C128"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="A129:C129"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="A130:C130"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="A131:C131"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="A132:C132"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="A133:C133"/>
+    <mergeCell ref="D133:E133"/>
+    <mergeCell ref="A134:C134"/>
+    <mergeCell ref="D134:E134"/>
+    <mergeCell ref="A135:C135"/>
+    <mergeCell ref="D135:E135"/>
+    <mergeCell ref="A136:C136"/>
+    <mergeCell ref="D136:E136"/>
+    <mergeCell ref="A137:C137"/>
+    <mergeCell ref="D137:E137"/>
+    <mergeCell ref="A138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="A139:C139"/>
+    <mergeCell ref="D139:E139"/>
+    <mergeCell ref="A140:C140"/>
+    <mergeCell ref="D140:E140"/>
+    <mergeCell ref="A141:C141"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="A142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="A143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="A144:C144"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="A145:C145"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="A146:C146"/>
+    <mergeCell ref="D146:E146"/>
+    <mergeCell ref="A147:C147"/>
+    <mergeCell ref="D147:E147"/>
+    <mergeCell ref="A148:C148"/>
+    <mergeCell ref="D148:E148"/>
+    <mergeCell ref="A149:C149"/>
+    <mergeCell ref="D149:E149"/>
+    <mergeCell ref="A150:C150"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="A151:C151"/>
+    <mergeCell ref="D151:E151"/>
+    <mergeCell ref="A152:C152"/>
+    <mergeCell ref="D152:E152"/>
+    <mergeCell ref="A153:C153"/>
+    <mergeCell ref="D153:E153"/>
+    <mergeCell ref="A154:C154"/>
+    <mergeCell ref="D154:E154"/>
     <mergeCell ref="A160:C160"/>
     <mergeCell ref="D160:E160"/>
     <mergeCell ref="A161:C161"/>
@@ -3316,306 +3582,6 @@
     <mergeCell ref="D158:E158"/>
     <mergeCell ref="A159:C159"/>
     <mergeCell ref="D159:E159"/>
-    <mergeCell ref="A150:C150"/>
-    <mergeCell ref="D150:E150"/>
-    <mergeCell ref="A151:C151"/>
-    <mergeCell ref="D151:E151"/>
-    <mergeCell ref="A152:C152"/>
-    <mergeCell ref="D152:E152"/>
-    <mergeCell ref="A153:C153"/>
-    <mergeCell ref="D153:E153"/>
-    <mergeCell ref="A154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="A145:C145"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="A146:C146"/>
-    <mergeCell ref="D146:E146"/>
-    <mergeCell ref="A147:C147"/>
-    <mergeCell ref="D147:E147"/>
-    <mergeCell ref="A148:C148"/>
-    <mergeCell ref="D148:E148"/>
-    <mergeCell ref="A149:C149"/>
-    <mergeCell ref="D149:E149"/>
-    <mergeCell ref="A140:C140"/>
-    <mergeCell ref="D140:E140"/>
-    <mergeCell ref="A141:C141"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="A142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="A143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="A144:C144"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="A135:C135"/>
-    <mergeCell ref="D135:E135"/>
-    <mergeCell ref="A136:C136"/>
-    <mergeCell ref="D136:E136"/>
-    <mergeCell ref="A137:C137"/>
-    <mergeCell ref="D137:E137"/>
-    <mergeCell ref="A138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="A139:C139"/>
-    <mergeCell ref="D139:E139"/>
-    <mergeCell ref="A130:C130"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="A131:C131"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="A132:C132"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="A133:C133"/>
-    <mergeCell ref="D133:E133"/>
-    <mergeCell ref="A134:C134"/>
-    <mergeCell ref="D134:E134"/>
-    <mergeCell ref="A125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="A126:C126"/>
-    <mergeCell ref="D126:E126"/>
-    <mergeCell ref="A127:C127"/>
-    <mergeCell ref="D127:E127"/>
-    <mergeCell ref="A128:C128"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="A129:C129"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="A120:C120"/>
-    <mergeCell ref="D120:E120"/>
-    <mergeCell ref="A121:C121"/>
-    <mergeCell ref="D121:E121"/>
-    <mergeCell ref="A122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="A123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="A124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="A115:C115"/>
-    <mergeCell ref="D115:E115"/>
-    <mergeCell ref="A116:C116"/>
-    <mergeCell ref="D116:E116"/>
-    <mergeCell ref="A117:C117"/>
-    <mergeCell ref="D117:E117"/>
-    <mergeCell ref="A118:C118"/>
-    <mergeCell ref="D118:E118"/>
-    <mergeCell ref="A119:C119"/>
-    <mergeCell ref="D119:E119"/>
-    <mergeCell ref="A110:C110"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="A111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="A112:C112"/>
-    <mergeCell ref="D112:E112"/>
-    <mergeCell ref="A113:C113"/>
-    <mergeCell ref="D113:E113"/>
-    <mergeCell ref="A114:C114"/>
-    <mergeCell ref="D114:E114"/>
-    <mergeCell ref="A105:C105"/>
-    <mergeCell ref="D105:E105"/>
-    <mergeCell ref="A106:C106"/>
-    <mergeCell ref="D106:E106"/>
-    <mergeCell ref="A107:C107"/>
-    <mergeCell ref="D107:E107"/>
-    <mergeCell ref="A108:C108"/>
-    <mergeCell ref="D108:E108"/>
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="D109:E109"/>
-    <mergeCell ref="A100:C100"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="A101:C101"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="A102:C102"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="A103:C103"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="A104:C104"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="A95:C95"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="A96:C96"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="A97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="A98:C98"/>
-    <mergeCell ref="D98:E98"/>
-    <mergeCell ref="A99:C99"/>
-    <mergeCell ref="D99:E99"/>
-    <mergeCell ref="A90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="A91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="A92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="A93:C93"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="A85:C85"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="A86:C86"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="A87:C87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="A88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="A89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="A80:C80"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="A82:C82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="A83:C83"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="A84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="A75:C75"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="A78:C78"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="A79:C79"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="A72:C72"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="A73:C73"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="A74:C74"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="A65:C65"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="A66:C66"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="A67:C67"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="A68:C68"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="A69:C69"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="A60:C60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="A62:C62"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="A63:C63"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="A64:C64"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="A56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="A57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="A58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="A59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="A42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="A35:C35"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="A36:C36"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="A37:C37"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="A38:C38"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="A30:C30"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="A31:C31"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="A26:C26"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="A27:C27"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="A28:C28"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="A29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="A12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="A13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="A14:C14"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="C3:J3"/>
-    <mergeCell ref="A5:C6"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:E9"/>
   </mergeCells>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
